--- a/project_tracker.xlsx
+++ b/project_tracker.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{0CF404EC-2E06-4CD9-A2EB-8306E99E2FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30465" yWindow="-1545" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project tracker" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.499984740745262"/>
@@ -595,6 +595,19 @@
   </cellStyles>
   <dxfs count="27">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -887,19 +900,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1193,7 +1193,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjectTracker" displayName="ProjectTracker" ref="B4:M13" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ProjectTracker" displayName="ProjectTracker" ref="B4:M13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="B4:M13" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1209,22 +1209,22 @@
     <filterColumn colId="11" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Project" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned to" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Estimated start" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Estimated finish" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Estimated work (in hours)" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Estimated duration_x000a_(in days)" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Project" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Category" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Assigned to" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Estimated start" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Estimated finish" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Estimated work (in hours)" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Estimated duration_x000a_(in days)" dataDxfId="11">
       <calculatedColumnFormula>IF(COUNTA('Project tracker'!$E5,'Project tracker'!$F5)&lt;&gt;2,"",DAYS360('Project tracker'!$E5,'Project tracker'!$F5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual start" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Actual finish" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Actual work _x000a_(in hours)" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Actual duration (in days)" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Actual start" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Actual finish" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Actual work _x000a_(in hours)" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Actual duration (in days)" dataDxfId="7">
       <calculatedColumnFormula>IF(COUNTA('Project tracker'!$I5,'Project tracker'!$J5)&lt;&gt;2,"",DAYS360('Project tracker'!$I5,'Project tracker'!$J5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Notes" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Notes" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1236,14 +1236,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="CategoryAndEmployeeTable" displayName="CategoryAndEmployeeTable" ref="B4:C10" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="CategoryAndEmployeeTable" displayName="CategoryAndEmployeeTable" ref="B4:C10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="B4:C10" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category Name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Employee Name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Category Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Employee Name" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1489,22 +1489,22 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" style="3" customWidth="1"/>
-    <col min="2" max="4" width="18.69921875" style="20" customWidth="1"/>
-    <col min="5" max="6" width="18.69921875" style="21" customWidth="1"/>
-    <col min="7" max="8" width="18.69921875" style="20" customWidth="1"/>
-    <col min="9" max="10" width="16.796875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="3" customWidth="1"/>
+    <col min="2" max="4" width="18.7265625" style="20" customWidth="1"/>
+    <col min="5" max="6" width="18.7265625" style="21" customWidth="1"/>
+    <col min="7" max="8" width="18.7265625" style="20" customWidth="1"/>
+    <col min="9" max="10" width="16.81640625" style="21" customWidth="1"/>
     <col min="11" max="12" width="16" style="20" customWidth="1"/>
-    <col min="13" max="13" width="20.3984375" style="20" customWidth="1"/>
-    <col min="14" max="14" width="6.69921875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="4.19921875" style="2" customWidth="1"/>
-    <col min="16" max="40" width="3.296875" style="2" customWidth="1"/>
-    <col min="41" max="16384" width="9.09765625" style="2"/>
+    <col min="13" max="13" width="20.36328125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="4.1796875" style="2" customWidth="1"/>
+    <col min="16" max="40" width="3.26953125" style="2" customWidth="1"/>
+    <col min="41" max="16384" width="9.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1520,7 +1520,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="12" t="s">
         <v>0</v>
@@ -1542,7 +1542,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1558,7 +1558,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="62.1" customHeight="1">
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="18" t="s">
         <v>2</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="N4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="19" t="s">
         <v>14</v>
@@ -1611,26 +1611,26 @@
       </c>
       <c r="E5" s="26">
         <f ca="1">TODAY()-65</f>
-        <v>45262</v>
+        <v>45265</v>
       </c>
       <c r="F5" s="26">
         <f ca="1">TODAY()-5</f>
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="G5" s="19">
         <v>210</v>
       </c>
       <c r="H5" s="22">
         <f ca="1">IF(COUNTA('Project tracker'!$E5,'Project tracker'!$F5)&lt;&gt;2,"",DAYS360('Project tracker'!$E5,'Project tracker'!$F5,FALSE))</f>
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I5" s="26">
         <f ca="1">TODAY()-65</f>
-        <v>45262</v>
+        <v>45265</v>
       </c>
       <c r="J5" s="26">
         <f ca="1">TODAY()</f>
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="K5" s="19">
         <v>300</v>
@@ -1642,7 +1642,7 @@
       <c r="M5" s="19"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="19" t="s">
         <v>17</v>
@@ -1655,11 +1655,11 @@
       </c>
       <c r="E6" s="26">
         <f ca="1">TODAY()-41</f>
-        <v>45286</v>
+        <v>45289</v>
       </c>
       <c r="F6" s="26">
         <f ca="1">TODAY()-10</f>
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="G6" s="19">
         <v>400</v>
@@ -1670,23 +1670,23 @@
       </c>
       <c r="I6" s="26">
         <f ca="1">TODAY()-41</f>
-        <v>45286</v>
+        <v>45289</v>
       </c>
       <c r="J6" s="26">
         <f ca="1">TODAY()-7</f>
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="K6" s="19">
         <v>390</v>
       </c>
       <c r="L6" s="22">
         <f ca="1">IF(COUNTA('Project tracker'!$I6,'Project tracker'!$J6)&lt;&gt;2,"",DAYS360('Project tracker'!$I6,'Project tracker'!$J6,FALSE))</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="19" t="s">
         <v>20</v>
@@ -1699,38 +1699,38 @@
       </c>
       <c r="E7" s="26">
         <f ca="1">TODAY()-100</f>
-        <v>45227</v>
+        <v>45230</v>
       </c>
       <c r="F7" s="26">
         <f ca="1">TODAY()-40</f>
-        <v>45287</v>
+        <v>45290</v>
       </c>
       <c r="G7" s="19">
         <v>500</v>
       </c>
       <c r="H7" s="22">
         <f ca="1">IF(COUNTA('Project tracker'!$E7,'Project tracker'!$F7)&lt;&gt;2,"",DAYS360('Project tracker'!$E7,'Project tracker'!$F7,FALSE))</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="26">
         <f ca="1">TODAY()-100</f>
-        <v>45227</v>
+        <v>45230</v>
       </c>
       <c r="J7" s="26">
         <f ca="1">TODAY()-27</f>
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="K7" s="19">
         <v>500</v>
       </c>
       <c r="L7" s="22">
         <f ca="1">IF(COUNTA('Project tracker'!$I7,'Project tracker'!$J7)&lt;&gt;2,"",DAYS360('Project tracker'!$I7,'Project tracker'!$J7,FALSE))</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="19" t="s">
         <v>22</v>
@@ -1743,11 +1743,11 @@
       </c>
       <c r="E8" s="26">
         <f ca="1">TODAY()-90</f>
-        <v>45237</v>
+        <v>45240</v>
       </c>
       <c r="F8" s="26">
         <f ca="1">TODAY()-80</f>
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="G8" s="19">
         <v>250</v>
@@ -1758,11 +1758,11 @@
       </c>
       <c r="I8" s="26">
         <f ca="1">TODAY()-90</f>
-        <v>45237</v>
+        <v>45240</v>
       </c>
       <c r="J8" s="26">
         <f ca="1">TODAY()-71</f>
-        <v>45256</v>
+        <v>45259</v>
       </c>
       <c r="K8" s="19">
         <v>276</v>
@@ -1774,7 +1774,7 @@
       <c r="M8" s="19"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="9" spans="1:14" s="5" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="19" t="s">
         <v>24</v>
@@ -1787,11 +1787,11 @@
       </c>
       <c r="E9" s="26">
         <f ca="1">TODAY()-90</f>
-        <v>45237</v>
+        <v>45240</v>
       </c>
       <c r="F9" s="26">
         <f ca="1">TODAY()-50</f>
-        <v>45277</v>
+        <v>45280</v>
       </c>
       <c r="G9" s="19">
         <v>300</v>
@@ -1802,11 +1802,11 @@
       </c>
       <c r="I9" s="26">
         <f ca="1">TODAY()-90</f>
-        <v>45237</v>
+        <v>45240</v>
       </c>
       <c r="J9" s="26">
         <f ca="1">TODAY()-44</f>
-        <v>45283</v>
+        <v>45286</v>
       </c>
       <c r="K9" s="19">
         <v>310</v>
@@ -1818,7 +1818,7 @@
       <c r="M9" s="19"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="19" t="s">
         <v>26</v>
@@ -1831,11 +1831,11 @@
       </c>
       <c r="E10" s="26">
         <f ca="1">TODAY()-60</f>
-        <v>45267</v>
+        <v>45270</v>
       </c>
       <c r="F10" s="26">
         <f ca="1">TODAY()-50</f>
-        <v>45277</v>
+        <v>45280</v>
       </c>
       <c r="G10" s="19">
         <v>500</v>
@@ -1846,11 +1846,11 @@
       </c>
       <c r="I10" s="26">
         <f ca="1">TODAY()-60</f>
-        <v>45267</v>
+        <v>45270</v>
       </c>
       <c r="J10" s="26">
         <f ca="1">TODAY()-45</f>
-        <v>45282</v>
+        <v>45285</v>
       </c>
       <c r="K10" s="19">
         <v>510</v>
@@ -1862,7 +1862,7 @@
       <c r="M10" s="19"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="11" spans="1:14" s="5" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="19" t="s">
         <v>28</v>
@@ -1875,11 +1875,11 @@
       </c>
       <c r="E11" s="26">
         <f ca="1">TODAY()-44</f>
-        <v>45283</v>
+        <v>45286</v>
       </c>
       <c r="F11" s="26">
         <f ca="1">TODAY()-20</f>
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="G11" s="19">
         <v>750</v>
@@ -1890,11 +1890,11 @@
       </c>
       <c r="I11" s="26">
         <f ca="1">TODAY()-44</f>
-        <v>45283</v>
+        <v>45286</v>
       </c>
       <c r="J11" s="26">
         <f ca="1">TODAY()-15</f>
-        <v>45312</v>
+        <v>45315</v>
       </c>
       <c r="K11" s="19">
         <v>790</v>
@@ -1906,7 +1906,7 @@
       <c r="M11" s="19"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="12" spans="1:14" s="5" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="19" t="s">
         <v>30</v>
@@ -1919,38 +1919,38 @@
       </c>
       <c r="E12" s="26">
         <f ca="1">TODAY()-39</f>
-        <v>45288</v>
+        <v>45291</v>
       </c>
       <c r="F12" s="26">
         <f ca="1">TODAY()</f>
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="G12" s="19">
         <v>450</v>
       </c>
       <c r="H12" s="22">
         <f ca="1">IF(COUNTA('Project tracker'!$E12,'Project tracker'!$F12)&lt;&gt;2,"",DAYS360('Project tracker'!$E12,'Project tracker'!$F12,FALSE))</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I12" s="26">
         <f ca="1">TODAY()-45</f>
-        <v>45282</v>
+        <v>45285</v>
       </c>
       <c r="J12" s="26">
         <f ca="1">TODAY()-5</f>
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="K12" s="19">
         <v>430</v>
       </c>
       <c r="L12" s="22">
         <f ca="1">IF(COUNTA('Project tracker'!$I12,'Project tracker'!$J12)&lt;&gt;2,"",DAYS360('Project tracker'!$I12,'Project tracker'!$J12,FALSE))</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M12" s="19"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" s="5" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="13" spans="1:14" s="5" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="19" t="s">
         <v>31</v>
@@ -1963,11 +1963,11 @@
       </c>
       <c r="E13" s="26">
         <f ca="1">TODAY()-95</f>
-        <v>45232</v>
+        <v>45235</v>
       </c>
       <c r="F13" s="26">
         <f ca="1">TODAY()-75</f>
-        <v>45252</v>
+        <v>45255</v>
       </c>
       <c r="G13" s="19">
         <v>250</v>
@@ -1978,11 +1978,11 @@
       </c>
       <c r="I13" s="26">
         <f ca="1">TODAY()-90</f>
-        <v>45237</v>
+        <v>45240</v>
       </c>
       <c r="J13" s="26">
         <f ca="1">TODAY()-80</f>
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="K13" s="19">
         <v>200</v>
@@ -1994,7 +1994,7 @@
       <c r="M13" s="19"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:14" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -2012,12 +2012,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5:K13">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>(ABS((K5-G5))/G5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L13">
-    <cfRule type="expression" dxfId="18" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>(ABS((L5-H5))/H5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2063,21 +2063,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.69921875" style="13" customWidth="1"/>
-    <col min="2" max="3" width="18.5" style="24" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="13" customWidth="1"/>
+    <col min="2" max="3" width="18.453125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" style="14" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:4" customFormat="1" ht="80.099999999999994" customHeight="1">
+    <row r="2" spans="1:4" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="17" t="s">
         <v>32</v>
@@ -2085,13 +2085,13 @@
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="1:4" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:4" customFormat="1" ht="62.1" customHeight="1">
+    <row r="4" spans="1:4" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="23" t="s">
         <v>33</v>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:4" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="5" spans="1:4" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="23" t="s">
         <v>15</v>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:4" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="6" spans="1:4" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="23" t="s">
         <v>18</v>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:4" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="7" spans="1:4" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="23" t="s">
         <v>25</v>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:4" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="8" spans="1:4" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="23" t="s">
         <v>27</v>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:4" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="9" spans="1:4" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="23" t="s">
         <v>29</v>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:4" customFormat="1" ht="33.950000000000003" customHeight="1">
+    <row r="10" spans="1:4" customFormat="1" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="23" t="s">
         <v>36</v>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:4" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -2183,12 +2183,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2504,35 +2515,53 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648F31BC-5AA3-42BF-80F4-A797E59C4FBD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9066C173-72E5-4455-ACFB-9A7596D30A2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D99023F8-0F96-4650-8DC3-63EE0BD6CB59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D99023F8-0F96-4650-8DC3-63EE0BD6CB59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9066C173-72E5-4455-ACFB-9A7596D30A2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{648F31BC-5AA3-42BF-80F4-A797E59C4FBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
